--- a/excel/32158(top).xlsx
+++ b/excel/32158(top).xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_1F0F507C57CC8D1C9424A318C64930BBDF704713" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3F011FCD-4425-4C06-9C9D-0FCCF583F6CF}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="11_1F0F507C57CC8D1C9424A318C64930BBDF704713" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D8BDF3C5-7CF4-4CA2-BFC5-6B87E289D6C1}"/>
   <bookViews>
-    <workbookView xWindow="8550" yWindow="60" windowWidth="14400" windowHeight="14400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4427" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4427" uniqueCount="157">
   <si>
     <t>Board</t>
   </si>
@@ -487,9 +487,6 @@
     <t>D4</t>
   </si>
   <si>
-    <t>016-32063-06</t>
-  </si>
-  <si>
     <t>016-32063-06X</t>
   </si>
   <si>
@@ -813,8 +810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q547"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="L93" sqref="L93"/>
+    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
+      <selection activeCell="F92" sqref="F92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4289,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="F91" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H91" t="s">
         <v>19</v>
@@ -4330,7 +4327,7 @@
         <v>180</v>
       </c>
       <c r="F92" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H92" t="s">
         <v>19</v>

--- a/excel/32158(top).xlsx
+++ b/excel/32158(top).xlsx
@@ -3,13 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="8" documentId="11_1F0F507C57CC8D1C9424A318C64930BBDF704713" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D8BDF3C5-7CF4-4CA2-BFC5-6B87E289D6C1}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="11_1F0F507C57CC8D1C9424A318C64930BBDF704713" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{48A39D6A-80A4-4336-B208-9DF7490CC063}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1485" yWindow="360" windowWidth="14400" windowHeight="14400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Q$547</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -810,8 +813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q547"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
-      <selection activeCell="F92" sqref="F92"/>
+    <sheetView tabSelected="1" topLeftCell="E513" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -936,7 +939,7 @@
         <v>19</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O3" t="s">
         <v>20</v>
@@ -971,7 +974,7 @@
         <v>19</v>
       </c>
       <c r="I4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O4" t="s">
         <v>20</v>
@@ -1088,7 +1091,7 @@
         <v>19</v>
       </c>
       <c r="I7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O7" t="s">
         <v>20</v>
@@ -1287,7 +1290,7 @@
         <v>19</v>
       </c>
       <c r="I12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O12" t="s">
         <v>20</v>
@@ -1363,7 +1366,7 @@
         <v>19</v>
       </c>
       <c r="I14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O14" t="s">
         <v>20</v>
@@ -1398,7 +1401,7 @@
         <v>19</v>
       </c>
       <c r="I15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O15" t="s">
         <v>20</v>
@@ -1515,7 +1518,7 @@
         <v>19</v>
       </c>
       <c r="I18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O18" t="s">
         <v>20</v>
@@ -1550,7 +1553,7 @@
         <v>19</v>
       </c>
       <c r="I19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O19" t="s">
         <v>20</v>
@@ -1585,7 +1588,7 @@
         <v>19</v>
       </c>
       <c r="I20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O20" t="s">
         <v>20</v>
@@ -1620,7 +1623,7 @@
         <v>19</v>
       </c>
       <c r="I21" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O21" t="s">
         <v>20</v>
@@ -1655,7 +1658,7 @@
         <v>19</v>
       </c>
       <c r="I22" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O22" t="s">
         <v>20</v>
@@ -1690,7 +1693,7 @@
         <v>19</v>
       </c>
       <c r="I23" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O23" t="s">
         <v>20</v>
@@ -1725,7 +1728,7 @@
         <v>19</v>
       </c>
       <c r="I24" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O24" t="s">
         <v>20</v>
@@ -1842,7 +1845,7 @@
         <v>19</v>
       </c>
       <c r="I27" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O27" t="s">
         <v>20</v>
@@ -1877,7 +1880,7 @@
         <v>19</v>
       </c>
       <c r="I28" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O28" t="s">
         <v>20</v>
@@ -1912,7 +1915,7 @@
         <v>19</v>
       </c>
       <c r="I29" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O29" t="s">
         <v>20</v>
@@ -1947,7 +1950,7 @@
         <v>19</v>
       </c>
       <c r="I30" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O30" t="s">
         <v>20</v>
@@ -1982,7 +1985,7 @@
         <v>19</v>
       </c>
       <c r="I31" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O31" t="s">
         <v>20</v>
@@ -2017,7 +2020,7 @@
         <v>19</v>
       </c>
       <c r="I32" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O32" t="s">
         <v>20</v>
@@ -2093,7 +2096,7 @@
         <v>19</v>
       </c>
       <c r="I34" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O34" t="s">
         <v>20</v>
@@ -2169,7 +2172,7 @@
         <v>19</v>
       </c>
       <c r="I36" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O36" t="s">
         <v>20</v>
@@ -2204,7 +2207,7 @@
         <v>19</v>
       </c>
       <c r="I37" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O37" t="s">
         <v>20</v>
@@ -2239,7 +2242,7 @@
         <v>19</v>
       </c>
       <c r="I38" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O38" t="s">
         <v>20</v>
@@ -2274,7 +2277,7 @@
         <v>19</v>
       </c>
       <c r="I39" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O39" t="s">
         <v>20</v>
@@ -2309,7 +2312,7 @@
         <v>19</v>
       </c>
       <c r="I40" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O40" t="s">
         <v>20</v>
@@ -2344,7 +2347,7 @@
         <v>19</v>
       </c>
       <c r="I41" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O41" t="s">
         <v>20</v>
@@ -2379,7 +2382,7 @@
         <v>19</v>
       </c>
       <c r="I42" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O42" t="s">
         <v>20</v>
@@ -2496,7 +2499,7 @@
         <v>19</v>
       </c>
       <c r="I45" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O45" t="s">
         <v>20</v>
@@ -2531,7 +2534,7 @@
         <v>19</v>
       </c>
       <c r="I46" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O46" t="s">
         <v>20</v>
@@ -2607,7 +2610,7 @@
         <v>19</v>
       </c>
       <c r="I48" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O48" t="s">
         <v>20</v>
@@ -3175,7 +3178,7 @@
         <v>19</v>
       </c>
       <c r="I62" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O62" t="s">
         <v>20</v>
@@ -3210,7 +3213,7 @@
         <v>19</v>
       </c>
       <c r="I63" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O63" t="s">
         <v>20</v>
@@ -3286,7 +3289,7 @@
         <v>19</v>
       </c>
       <c r="I65" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O65" t="s">
         <v>20</v>
@@ -3690,7 +3693,7 @@
         <v>19</v>
       </c>
       <c r="I75" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O75" t="s">
         <v>20</v>
@@ -3725,7 +3728,7 @@
         <v>19</v>
       </c>
       <c r="I76" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O76" t="s">
         <v>20</v>
@@ -3760,7 +3763,7 @@
         <v>19</v>
       </c>
       <c r="I77" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O77" t="s">
         <v>20</v>
@@ -3795,7 +3798,7 @@
         <v>19</v>
       </c>
       <c r="I78" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O78" t="s">
         <v>20</v>
@@ -3994,7 +3997,7 @@
         <v>19</v>
       </c>
       <c r="I83" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O83" t="s">
         <v>20</v>
@@ -4029,7 +4032,7 @@
         <v>19</v>
       </c>
       <c r="I84" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O84" t="s">
         <v>20</v>
@@ -4105,7 +4108,7 @@
         <v>19</v>
       </c>
       <c r="I86" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O86" t="s">
         <v>20</v>
@@ -4140,7 +4143,7 @@
         <v>19</v>
       </c>
       <c r="I87" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O87" t="s">
         <v>20</v>
@@ -4216,7 +4219,7 @@
         <v>19</v>
       </c>
       <c r="I89" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O89" t="s">
         <v>20</v>
@@ -4415,7 +4418,7 @@
         <v>19</v>
       </c>
       <c r="I94" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O94" t="s">
         <v>20</v>
@@ -4450,7 +4453,7 @@
         <v>19</v>
       </c>
       <c r="I95" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O95" t="s">
         <v>20</v>
@@ -4567,7 +4570,7 @@
         <v>19</v>
       </c>
       <c r="I98" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O98" t="s">
         <v>20</v>
@@ -4766,7 +4769,7 @@
         <v>19</v>
       </c>
       <c r="I103" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O103" t="s">
         <v>20</v>
@@ -4842,7 +4845,7 @@
         <v>19</v>
       </c>
       <c r="I105" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O105" t="s">
         <v>20</v>
@@ -4877,7 +4880,7 @@
         <v>19</v>
       </c>
       <c r="I106" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O106" t="s">
         <v>20</v>
@@ -4994,7 +4997,7 @@
         <v>19</v>
       </c>
       <c r="I109" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O109" t="s">
         <v>20</v>
@@ -5029,7 +5032,7 @@
         <v>19</v>
       </c>
       <c r="I110" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O110" t="s">
         <v>20</v>
@@ -5064,7 +5067,7 @@
         <v>19</v>
       </c>
       <c r="I111" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O111" t="s">
         <v>20</v>
@@ -5099,7 +5102,7 @@
         <v>19</v>
       </c>
       <c r="I112" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O112" t="s">
         <v>20</v>
@@ -5134,7 +5137,7 @@
         <v>19</v>
       </c>
       <c r="I113" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O113" t="s">
         <v>20</v>
@@ -5169,7 +5172,7 @@
         <v>19</v>
       </c>
       <c r="I114" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O114" t="s">
         <v>20</v>
@@ -5204,7 +5207,7 @@
         <v>19</v>
       </c>
       <c r="I115" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O115" t="s">
         <v>20</v>
@@ -5321,7 +5324,7 @@
         <v>19</v>
       </c>
       <c r="I118" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O118" t="s">
         <v>20</v>
@@ -5356,7 +5359,7 @@
         <v>19</v>
       </c>
       <c r="I119" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O119" t="s">
         <v>20</v>
@@ -5391,7 +5394,7 @@
         <v>19</v>
       </c>
       <c r="I120" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O120" t="s">
         <v>20</v>
@@ -5426,7 +5429,7 @@
         <v>19</v>
       </c>
       <c r="I121" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O121" t="s">
         <v>20</v>
@@ -5461,7 +5464,7 @@
         <v>19</v>
       </c>
       <c r="I122" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O122" t="s">
         <v>20</v>
@@ -5496,7 +5499,7 @@
         <v>19</v>
       </c>
       <c r="I123" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O123" t="s">
         <v>20</v>
@@ -5572,7 +5575,7 @@
         <v>19</v>
       </c>
       <c r="I125" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O125" t="s">
         <v>20</v>
@@ -5648,7 +5651,7 @@
         <v>19</v>
       </c>
       <c r="I127" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O127" t="s">
         <v>20</v>
@@ -5683,7 +5686,7 @@
         <v>19</v>
       </c>
       <c r="I128" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O128" t="s">
         <v>20</v>
@@ -5718,7 +5721,7 @@
         <v>19</v>
       </c>
       <c r="I129" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O129" t="s">
         <v>20</v>
@@ -5753,7 +5756,7 @@
         <v>19</v>
       </c>
       <c r="I130" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O130" t="s">
         <v>20</v>
@@ -5788,7 +5791,7 @@
         <v>19</v>
       </c>
       <c r="I131" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O131" t="s">
         <v>20</v>
@@ -5823,7 +5826,7 @@
         <v>19</v>
       </c>
       <c r="I132" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O132" t="s">
         <v>20</v>
@@ -5858,7 +5861,7 @@
         <v>19</v>
       </c>
       <c r="I133" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O133" t="s">
         <v>20</v>
@@ -5975,7 +5978,7 @@
         <v>19</v>
       </c>
       <c r="I136" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O136" t="s">
         <v>20</v>
@@ -6010,7 +6013,7 @@
         <v>19</v>
       </c>
       <c r="I137" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O137" t="s">
         <v>20</v>
@@ -6086,7 +6089,7 @@
         <v>19</v>
       </c>
       <c r="I139" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O139" t="s">
         <v>20</v>
@@ -6654,7 +6657,7 @@
         <v>19</v>
       </c>
       <c r="I153" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O153" t="s">
         <v>20</v>
@@ -6689,7 +6692,7 @@
         <v>19</v>
       </c>
       <c r="I154" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O154" t="s">
         <v>20</v>
@@ -6765,7 +6768,7 @@
         <v>19</v>
       </c>
       <c r="I156" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O156" t="s">
         <v>20</v>
@@ -7169,7 +7172,7 @@
         <v>19</v>
       </c>
       <c r="I166" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O166" t="s">
         <v>20</v>
@@ -7204,7 +7207,7 @@
         <v>19</v>
       </c>
       <c r="I167" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O167" t="s">
         <v>20</v>
@@ -7239,7 +7242,7 @@
         <v>19</v>
       </c>
       <c r="I168" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O168" t="s">
         <v>20</v>
@@ -7274,7 +7277,7 @@
         <v>19</v>
       </c>
       <c r="I169" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O169" t="s">
         <v>20</v>
@@ -7473,7 +7476,7 @@
         <v>19</v>
       </c>
       <c r="I174" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O174" t="s">
         <v>20</v>
@@ -7508,7 +7511,7 @@
         <v>19</v>
       </c>
       <c r="I175" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O175" t="s">
         <v>20</v>
@@ -7584,7 +7587,7 @@
         <v>19</v>
       </c>
       <c r="I177" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O177" t="s">
         <v>20</v>
@@ -7619,7 +7622,7 @@
         <v>19</v>
       </c>
       <c r="I178" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O178" t="s">
         <v>20</v>
@@ -7695,7 +7698,7 @@
         <v>19</v>
       </c>
       <c r="I180" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O180" t="s">
         <v>20</v>
@@ -7894,7 +7897,7 @@
         <v>19</v>
       </c>
       <c r="I185" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O185" t="s">
         <v>20</v>
@@ -7929,7 +7932,7 @@
         <v>19</v>
       </c>
       <c r="I186" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O186" t="s">
         <v>20</v>
@@ -8046,7 +8049,7 @@
         <v>19</v>
       </c>
       <c r="I189" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O189" t="s">
         <v>20</v>
@@ -8245,7 +8248,7 @@
         <v>19</v>
       </c>
       <c r="I194" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O194" t="s">
         <v>20</v>
@@ -8321,7 +8324,7 @@
         <v>19</v>
       </c>
       <c r="I196" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O196" t="s">
         <v>20</v>
@@ -8356,7 +8359,7 @@
         <v>19</v>
       </c>
       <c r="I197" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O197" t="s">
         <v>20</v>
@@ -8473,7 +8476,7 @@
         <v>19</v>
       </c>
       <c r="I200" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O200" t="s">
         <v>20</v>
@@ -8508,7 +8511,7 @@
         <v>19</v>
       </c>
       <c r="I201" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O201" t="s">
         <v>20</v>
@@ -8543,7 +8546,7 @@
         <v>19</v>
       </c>
       <c r="I202" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O202" t="s">
         <v>20</v>
@@ -8578,7 +8581,7 @@
         <v>19</v>
       </c>
       <c r="I203" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O203" t="s">
         <v>20</v>
@@ -8613,7 +8616,7 @@
         <v>19</v>
       </c>
       <c r="I204" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O204" t="s">
         <v>20</v>
@@ -8648,7 +8651,7 @@
         <v>19</v>
       </c>
       <c r="I205" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O205" t="s">
         <v>20</v>
@@ -8683,7 +8686,7 @@
         <v>19</v>
       </c>
       <c r="I206" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O206" t="s">
         <v>20</v>
@@ -8800,7 +8803,7 @@
         <v>19</v>
       </c>
       <c r="I209" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O209" t="s">
         <v>20</v>
@@ -8835,7 +8838,7 @@
         <v>19</v>
       </c>
       <c r="I210" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O210" t="s">
         <v>20</v>
@@ -8870,7 +8873,7 @@
         <v>19</v>
       </c>
       <c r="I211" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O211" t="s">
         <v>20</v>
@@ -8905,7 +8908,7 @@
         <v>19</v>
       </c>
       <c r="I212" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O212" t="s">
         <v>20</v>
@@ -8940,7 +8943,7 @@
         <v>19</v>
       </c>
       <c r="I213" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O213" t="s">
         <v>20</v>
@@ -8975,7 +8978,7 @@
         <v>19</v>
       </c>
       <c r="I214" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O214" t="s">
         <v>20</v>
@@ -9051,7 +9054,7 @@
         <v>19</v>
       </c>
       <c r="I216" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O216" t="s">
         <v>20</v>
@@ -9127,7 +9130,7 @@
         <v>19</v>
       </c>
       <c r="I218" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O218" t="s">
         <v>20</v>
@@ -9162,7 +9165,7 @@
         <v>19</v>
       </c>
       <c r="I219" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O219" t="s">
         <v>20</v>
@@ -9197,7 +9200,7 @@
         <v>19</v>
       </c>
       <c r="I220" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O220" t="s">
         <v>20</v>
@@ -9232,7 +9235,7 @@
         <v>19</v>
       </c>
       <c r="I221" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O221" t="s">
         <v>20</v>
@@ -9267,7 +9270,7 @@
         <v>19</v>
       </c>
       <c r="I222" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O222" t="s">
         <v>20</v>
@@ -9302,7 +9305,7 @@
         <v>19</v>
       </c>
       <c r="I223" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O223" t="s">
         <v>20</v>
@@ -9337,7 +9340,7 @@
         <v>19</v>
       </c>
       <c r="I224" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O224" t="s">
         <v>20</v>
@@ -9454,7 +9457,7 @@
         <v>19</v>
       </c>
       <c r="I227" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O227" t="s">
         <v>20</v>
@@ -9489,7 +9492,7 @@
         <v>19</v>
       </c>
       <c r="I228" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O228" t="s">
         <v>20</v>
@@ -9565,7 +9568,7 @@
         <v>19</v>
       </c>
       <c r="I230" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O230" t="s">
         <v>20</v>
@@ -10133,7 +10136,7 @@
         <v>19</v>
       </c>
       <c r="I244" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O244" t="s">
         <v>20</v>
@@ -10168,7 +10171,7 @@
         <v>19</v>
       </c>
       <c r="I245" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O245" t="s">
         <v>20</v>
@@ -10244,7 +10247,7 @@
         <v>19</v>
       </c>
       <c r="I247" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O247" t="s">
         <v>20</v>
@@ -10648,7 +10651,7 @@
         <v>19</v>
       </c>
       <c r="I257" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O257" t="s">
         <v>20</v>
@@ -10683,7 +10686,7 @@
         <v>19</v>
       </c>
       <c r="I258" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O258" t="s">
         <v>20</v>
@@ -10718,7 +10721,7 @@
         <v>19</v>
       </c>
       <c r="I259" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O259" t="s">
         <v>20</v>
@@ -10753,7 +10756,7 @@
         <v>19</v>
       </c>
       <c r="I260" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O260" t="s">
         <v>20</v>
@@ -10952,7 +10955,7 @@
         <v>19</v>
       </c>
       <c r="I265" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O265" t="s">
         <v>20</v>
@@ -10987,7 +10990,7 @@
         <v>19</v>
       </c>
       <c r="I266" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O266" t="s">
         <v>20</v>
@@ -11063,7 +11066,7 @@
         <v>19</v>
       </c>
       <c r="I268" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O268" t="s">
         <v>20</v>
@@ -11098,7 +11101,7 @@
         <v>19</v>
       </c>
       <c r="I269" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O269" t="s">
         <v>20</v>
@@ -11174,7 +11177,7 @@
         <v>19</v>
       </c>
       <c r="I271" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O271" t="s">
         <v>20</v>
@@ -11373,7 +11376,7 @@
         <v>19</v>
       </c>
       <c r="I276" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O276" t="s">
         <v>20</v>
@@ -11408,7 +11411,7 @@
         <v>19</v>
       </c>
       <c r="I277" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O277" t="s">
         <v>20</v>
@@ -11525,7 +11528,7 @@
         <v>19</v>
       </c>
       <c r="I280" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O280" t="s">
         <v>20</v>
@@ -11724,7 +11727,7 @@
         <v>19</v>
       </c>
       <c r="I285" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O285" t="s">
         <v>20</v>
@@ -11800,7 +11803,7 @@
         <v>19</v>
       </c>
       <c r="I287" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O287" t="s">
         <v>20</v>
@@ -11835,7 +11838,7 @@
         <v>19</v>
       </c>
       <c r="I288" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O288" t="s">
         <v>20</v>
@@ -11952,7 +11955,7 @@
         <v>19</v>
       </c>
       <c r="I291" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O291" t="s">
         <v>20</v>
@@ -11987,7 +11990,7 @@
         <v>19</v>
       </c>
       <c r="I292" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O292" t="s">
         <v>20</v>
@@ -12022,7 +12025,7 @@
         <v>19</v>
       </c>
       <c r="I293" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O293" t="s">
         <v>20</v>
@@ -12057,7 +12060,7 @@
         <v>19</v>
       </c>
       <c r="I294" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O294" t="s">
         <v>20</v>
@@ -12092,7 +12095,7 @@
         <v>19</v>
       </c>
       <c r="I295" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O295" t="s">
         <v>20</v>
@@ -12127,7 +12130,7 @@
         <v>19</v>
       </c>
       <c r="I296" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O296" t="s">
         <v>20</v>
@@ -12162,7 +12165,7 @@
         <v>19</v>
       </c>
       <c r="I297" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O297" t="s">
         <v>20</v>
@@ -12279,7 +12282,7 @@
         <v>19</v>
       </c>
       <c r="I300" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O300" t="s">
         <v>20</v>
@@ -12314,7 +12317,7 @@
         <v>19</v>
       </c>
       <c r="I301" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O301" t="s">
         <v>20</v>
@@ -12349,7 +12352,7 @@
         <v>19</v>
       </c>
       <c r="I302" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O302" t="s">
         <v>20</v>
@@ -12384,7 +12387,7 @@
         <v>19</v>
       </c>
       <c r="I303" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O303" t="s">
         <v>20</v>
@@ -12419,7 +12422,7 @@
         <v>19</v>
       </c>
       <c r="I304" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O304" t="s">
         <v>20</v>
@@ -12454,7 +12457,7 @@
         <v>19</v>
       </c>
       <c r="I305" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O305" t="s">
         <v>20</v>
@@ -12530,7 +12533,7 @@
         <v>19</v>
       </c>
       <c r="I307" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O307" t="s">
         <v>20</v>
@@ -12606,7 +12609,7 @@
         <v>19</v>
       </c>
       <c r="I309" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O309" t="s">
         <v>20</v>
@@ -12641,7 +12644,7 @@
         <v>19</v>
       </c>
       <c r="I310" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O310" t="s">
         <v>20</v>
@@ -12676,7 +12679,7 @@
         <v>19</v>
       </c>
       <c r="I311" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O311" t="s">
         <v>20</v>
@@ -12711,7 +12714,7 @@
         <v>19</v>
       </c>
       <c r="I312" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O312" t="s">
         <v>20</v>
@@ -12746,7 +12749,7 @@
         <v>19</v>
       </c>
       <c r="I313" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O313" t="s">
         <v>20</v>
@@ -12781,7 +12784,7 @@
         <v>19</v>
       </c>
       <c r="I314" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O314" t="s">
         <v>20</v>
@@ -12816,7 +12819,7 @@
         <v>19</v>
       </c>
       <c r="I315" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O315" t="s">
         <v>20</v>
@@ -12933,7 +12936,7 @@
         <v>19</v>
       </c>
       <c r="I318" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O318" t="s">
         <v>20</v>
@@ -12968,7 +12971,7 @@
         <v>19</v>
       </c>
       <c r="I319" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O319" t="s">
         <v>20</v>
@@ -13044,7 +13047,7 @@
         <v>19</v>
       </c>
       <c r="I321" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O321" t="s">
         <v>20</v>
@@ -13612,7 +13615,7 @@
         <v>19</v>
       </c>
       <c r="I335" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O335" t="s">
         <v>20</v>
@@ -13647,7 +13650,7 @@
         <v>19</v>
       </c>
       <c r="I336" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O336" t="s">
         <v>20</v>
@@ -13723,7 +13726,7 @@
         <v>19</v>
       </c>
       <c r="I338" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O338" t="s">
         <v>20</v>
@@ -14127,7 +14130,7 @@
         <v>19</v>
       </c>
       <c r="I348" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O348" t="s">
         <v>20</v>
@@ -14162,7 +14165,7 @@
         <v>19</v>
       </c>
       <c r="I349" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O349" t="s">
         <v>20</v>
@@ -14197,7 +14200,7 @@
         <v>19</v>
       </c>
       <c r="I350" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O350" t="s">
         <v>20</v>
@@ -14232,7 +14235,7 @@
         <v>19</v>
       </c>
       <c r="I351" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O351" t="s">
         <v>20</v>
@@ -14431,7 +14434,7 @@
         <v>19</v>
       </c>
       <c r="I356" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O356" t="s">
         <v>20</v>
@@ -14466,7 +14469,7 @@
         <v>19</v>
       </c>
       <c r="I357" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O357" t="s">
         <v>20</v>
@@ -14542,7 +14545,7 @@
         <v>19</v>
       </c>
       <c r="I359" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O359" t="s">
         <v>20</v>
@@ -14577,7 +14580,7 @@
         <v>19</v>
       </c>
       <c r="I360" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O360" t="s">
         <v>20</v>
@@ -14653,7 +14656,7 @@
         <v>19</v>
       </c>
       <c r="I362" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O362" t="s">
         <v>20</v>
@@ -14852,7 +14855,7 @@
         <v>19</v>
       </c>
       <c r="I367" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O367" t="s">
         <v>20</v>
@@ -14887,7 +14890,7 @@
         <v>19</v>
       </c>
       <c r="I368" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O368" t="s">
         <v>20</v>
@@ -15004,7 +15007,7 @@
         <v>19</v>
       </c>
       <c r="I371" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O371" t="s">
         <v>20</v>
@@ -15203,7 +15206,7 @@
         <v>19</v>
       </c>
       <c r="I376" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O376" t="s">
         <v>20</v>
@@ -15279,7 +15282,7 @@
         <v>19</v>
       </c>
       <c r="I378" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O378" t="s">
         <v>20</v>
@@ -15314,7 +15317,7 @@
         <v>19</v>
       </c>
       <c r="I379" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O379" t="s">
         <v>20</v>
@@ -15431,7 +15434,7 @@
         <v>19</v>
       </c>
       <c r="I382" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O382" t="s">
         <v>20</v>
@@ -15466,7 +15469,7 @@
         <v>19</v>
       </c>
       <c r="I383" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O383" t="s">
         <v>20</v>
@@ -15501,7 +15504,7 @@
         <v>19</v>
       </c>
       <c r="I384" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O384" t="s">
         <v>20</v>
@@ -15536,7 +15539,7 @@
         <v>19</v>
       </c>
       <c r="I385" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O385" t="s">
         <v>20</v>
@@ -15571,7 +15574,7 @@
         <v>19</v>
       </c>
       <c r="I386" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O386" t="s">
         <v>20</v>
@@ -15606,7 +15609,7 @@
         <v>19</v>
       </c>
       <c r="I387" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O387" t="s">
         <v>20</v>
@@ -15641,7 +15644,7 @@
         <v>19</v>
       </c>
       <c r="I388" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O388" t="s">
         <v>20</v>
@@ -15758,7 +15761,7 @@
         <v>19</v>
       </c>
       <c r="I391" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O391" t="s">
         <v>20</v>
@@ -15793,7 +15796,7 @@
         <v>19</v>
       </c>
       <c r="I392" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O392" t="s">
         <v>20</v>
@@ -15828,7 +15831,7 @@
         <v>19</v>
       </c>
       <c r="I393" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O393" t="s">
         <v>20</v>
@@ -15863,7 +15866,7 @@
         <v>19</v>
       </c>
       <c r="I394" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O394" t="s">
         <v>20</v>
@@ -15898,7 +15901,7 @@
         <v>19</v>
       </c>
       <c r="I395" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O395" t="s">
         <v>20</v>
@@ -15933,7 +15936,7 @@
         <v>19</v>
       </c>
       <c r="I396" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O396" t="s">
         <v>20</v>
@@ -16009,7 +16012,7 @@
         <v>19</v>
       </c>
       <c r="I398" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O398" t="s">
         <v>20</v>
@@ -16085,7 +16088,7 @@
         <v>19</v>
       </c>
       <c r="I400" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O400" t="s">
         <v>20</v>
@@ -16120,7 +16123,7 @@
         <v>19</v>
       </c>
       <c r="I401" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O401" t="s">
         <v>20</v>
@@ -16155,7 +16158,7 @@
         <v>19</v>
       </c>
       <c r="I402" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O402" t="s">
         <v>20</v>
@@ -16190,7 +16193,7 @@
         <v>19</v>
       </c>
       <c r="I403" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O403" t="s">
         <v>20</v>
@@ -16225,7 +16228,7 @@
         <v>19</v>
       </c>
       <c r="I404" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O404" t="s">
         <v>20</v>
@@ -16260,7 +16263,7 @@
         <v>19</v>
       </c>
       <c r="I405" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O405" t="s">
         <v>20</v>
@@ -16295,7 +16298,7 @@
         <v>19</v>
       </c>
       <c r="I406" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O406" t="s">
         <v>20</v>
@@ -16412,7 +16415,7 @@
         <v>19</v>
       </c>
       <c r="I409" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O409" t="s">
         <v>20</v>
@@ -16447,7 +16450,7 @@
         <v>19</v>
       </c>
       <c r="I410" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O410" t="s">
         <v>20</v>
@@ -16523,7 +16526,7 @@
         <v>19</v>
       </c>
       <c r="I412" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O412" t="s">
         <v>20</v>
@@ -17091,7 +17094,7 @@
         <v>19</v>
       </c>
       <c r="I426" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O426" t="s">
         <v>20</v>
@@ -17126,7 +17129,7 @@
         <v>19</v>
       </c>
       <c r="I427" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O427" t="s">
         <v>20</v>
@@ -17202,7 +17205,7 @@
         <v>19</v>
       </c>
       <c r="I429" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O429" t="s">
         <v>20</v>
@@ -17606,7 +17609,7 @@
         <v>19</v>
       </c>
       <c r="I439" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O439" t="s">
         <v>20</v>
@@ -17641,7 +17644,7 @@
         <v>19</v>
       </c>
       <c r="I440" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O440" t="s">
         <v>20</v>
@@ -17676,7 +17679,7 @@
         <v>19</v>
       </c>
       <c r="I441" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O441" t="s">
         <v>20</v>
@@ -17711,7 +17714,7 @@
         <v>19</v>
       </c>
       <c r="I442" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O442" t="s">
         <v>20</v>
@@ -17910,7 +17913,7 @@
         <v>19</v>
       </c>
       <c r="I447" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O447" t="s">
         <v>20</v>
@@ -17945,7 +17948,7 @@
         <v>19</v>
       </c>
       <c r="I448" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O448" t="s">
         <v>20</v>
@@ -18021,7 +18024,7 @@
         <v>19</v>
       </c>
       <c r="I450" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O450" t="s">
         <v>20</v>
@@ -18056,7 +18059,7 @@
         <v>19</v>
       </c>
       <c r="I451" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O451" t="s">
         <v>20</v>
@@ -18132,7 +18135,7 @@
         <v>19</v>
       </c>
       <c r="I453" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O453" t="s">
         <v>20</v>
@@ -18331,7 +18334,7 @@
         <v>19</v>
       </c>
       <c r="I458" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O458" t="s">
         <v>20</v>
@@ -18366,7 +18369,7 @@
         <v>19</v>
       </c>
       <c r="I459" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O459" t="s">
         <v>20</v>
@@ -18483,7 +18486,7 @@
         <v>19</v>
       </c>
       <c r="I462" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O462" t="s">
         <v>20</v>
@@ -18682,7 +18685,7 @@
         <v>19</v>
       </c>
       <c r="I467" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O467" t="s">
         <v>20</v>
@@ -18758,7 +18761,7 @@
         <v>19</v>
       </c>
       <c r="I469" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O469" t="s">
         <v>20</v>
@@ -18793,7 +18796,7 @@
         <v>19</v>
       </c>
       <c r="I470" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O470" t="s">
         <v>20</v>
@@ -18910,7 +18913,7 @@
         <v>19</v>
       </c>
       <c r="I473" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O473" t="s">
         <v>20</v>
@@ -18945,7 +18948,7 @@
         <v>19</v>
       </c>
       <c r="I474" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O474" t="s">
         <v>20</v>
@@ -18980,7 +18983,7 @@
         <v>19</v>
       </c>
       <c r="I475" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O475" t="s">
         <v>20</v>
@@ -19015,7 +19018,7 @@
         <v>19</v>
       </c>
       <c r="I476" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O476" t="s">
         <v>20</v>
@@ -19050,7 +19053,7 @@
         <v>19</v>
       </c>
       <c r="I477" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O477" t="s">
         <v>20</v>
@@ -19085,7 +19088,7 @@
         <v>19</v>
       </c>
       <c r="I478" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O478" t="s">
         <v>20</v>
@@ -19120,7 +19123,7 @@
         <v>19</v>
       </c>
       <c r="I479" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O479" t="s">
         <v>20</v>
@@ -19237,7 +19240,7 @@
         <v>19</v>
       </c>
       <c r="I482" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O482" t="s">
         <v>20</v>
@@ -19272,7 +19275,7 @@
         <v>19</v>
       </c>
       <c r="I483" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O483" t="s">
         <v>20</v>
@@ -19307,7 +19310,7 @@
         <v>19</v>
       </c>
       <c r="I484" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O484" t="s">
         <v>20</v>
@@ -19342,7 +19345,7 @@
         <v>19</v>
       </c>
       <c r="I485" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O485" t="s">
         <v>20</v>
@@ -19377,7 +19380,7 @@
         <v>19</v>
       </c>
       <c r="I486" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O486" t="s">
         <v>20</v>
@@ -19412,7 +19415,7 @@
         <v>19</v>
       </c>
       <c r="I487" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O487" t="s">
         <v>20</v>
@@ -19488,7 +19491,7 @@
         <v>19</v>
       </c>
       <c r="I489" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O489" t="s">
         <v>20</v>
@@ -19564,7 +19567,7 @@
         <v>19</v>
       </c>
       <c r="I491" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O491" t="s">
         <v>20</v>
@@ -19599,7 +19602,7 @@
         <v>19</v>
       </c>
       <c r="I492" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O492" t="s">
         <v>20</v>
@@ -19634,7 +19637,7 @@
         <v>19</v>
       </c>
       <c r="I493" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O493" t="s">
         <v>20</v>
@@ -19669,7 +19672,7 @@
         <v>19</v>
       </c>
       <c r="I494" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O494" t="s">
         <v>20</v>
@@ -19704,7 +19707,7 @@
         <v>19</v>
       </c>
       <c r="I495" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O495" t="s">
         <v>20</v>
@@ -19739,7 +19742,7 @@
         <v>19</v>
       </c>
       <c r="I496" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O496" t="s">
         <v>20</v>
@@ -19774,7 +19777,7 @@
         <v>19</v>
       </c>
       <c r="I497" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O497" t="s">
         <v>20</v>
@@ -19891,7 +19894,7 @@
         <v>19</v>
       </c>
       <c r="I500" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O500" t="s">
         <v>20</v>
@@ -19926,7 +19929,7 @@
         <v>19</v>
       </c>
       <c r="I501" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O501" t="s">
         <v>20</v>

--- a/excel/32158(top).xlsx
+++ b/excel/32158(top).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="18" documentId="11_1F0F507C57CC8D1C9424A318C64930BBDF704713" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{48A39D6A-80A4-4336-B208-9DF7490CC063}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="11_1F0F507C57CC8D1C9424A318C64930BBDF704713" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FD56356E-3093-47A7-AB4F-C2548BDF23EB}"/>
   <bookViews>
     <workbookView xWindow="1485" yWindow="360" windowWidth="14400" windowHeight="14400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,7 +11,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Q$547</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$E$1:$Q$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -813,8 +813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q547"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E513" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -898,7 +898,7 @@
         <v>19</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J2" t="s">
         <v>21</v>
@@ -939,7 +939,7 @@
         <v>19</v>
       </c>
       <c r="I3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O3" t="s">
         <v>20</v>
@@ -974,7 +974,7 @@
         <v>19</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O4" t="s">
         <v>20</v>
@@ -1009,7 +1009,7 @@
         <v>19</v>
       </c>
       <c r="I5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J5" t="s">
         <v>21</v>
@@ -1050,7 +1050,7 @@
         <v>19</v>
       </c>
       <c r="I6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J6" t="s">
         <v>21</v>
@@ -1091,7 +1091,7 @@
         <v>19</v>
       </c>
       <c r="I7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O7" t="s">
         <v>20</v>
@@ -1126,7 +1126,7 @@
         <v>19</v>
       </c>
       <c r="I8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J8" t="s">
         <v>21</v>
@@ -1167,7 +1167,7 @@
         <v>19</v>
       </c>
       <c r="I9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J9" t="s">
         <v>21</v>
@@ -1208,7 +1208,7 @@
         <v>19</v>
       </c>
       <c r="I10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J10" t="s">
         <v>21</v>
@@ -1249,7 +1249,7 @@
         <v>19</v>
       </c>
       <c r="I11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J11" t="s">
         <v>21</v>
@@ -20005,7 +20005,7 @@
         <v>19</v>
       </c>
       <c r="I503" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O503" t="s">
         <v>20</v>
@@ -20573,7 +20573,7 @@
         <v>19</v>
       </c>
       <c r="I517" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O517" t="s">
         <v>20</v>
@@ -20608,7 +20608,7 @@
         <v>19</v>
       </c>
       <c r="I518" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O518" t="s">
         <v>20</v>
@@ -20684,7 +20684,7 @@
         <v>19</v>
       </c>
       <c r="I520" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O520" t="s">
         <v>20</v>
@@ -21088,7 +21088,7 @@
         <v>19</v>
       </c>
       <c r="I530" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O530" t="s">
         <v>20</v>
@@ -21123,7 +21123,7 @@
         <v>19</v>
       </c>
       <c r="I531" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O531" t="s">
         <v>20</v>
@@ -21158,7 +21158,7 @@
         <v>19</v>
       </c>
       <c r="I532" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O532" t="s">
         <v>20</v>
@@ -21193,7 +21193,7 @@
         <v>19</v>
       </c>
       <c r="I533" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O533" t="s">
         <v>20</v>
@@ -21392,7 +21392,7 @@
         <v>19</v>
       </c>
       <c r="I538" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O538" t="s">
         <v>20</v>
@@ -21427,7 +21427,7 @@
         <v>19</v>
       </c>
       <c r="I539" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O539" t="s">
         <v>20</v>
@@ -21503,7 +21503,7 @@
         <v>19</v>
       </c>
       <c r="I541" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O541" t="s">
         <v>20</v>
@@ -21538,7 +21538,7 @@
         <v>19</v>
       </c>
       <c r="I542" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O542" t="s">
         <v>20</v>
@@ -21614,7 +21614,7 @@
         <v>19</v>
       </c>
       <c r="I544" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O544" t="s">
         <v>20</v>
@@ -21750,6 +21750,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="E1:Q1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/excel/32158(top).xlsx
+++ b/excel/32158(top).xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="26" documentId="11_1F0F507C57CC8D1C9424A318C64930BBDF704713" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FD56356E-3093-47A7-AB4F-C2548BDF23EB}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="11_1F0F507C57CC8D1C9424A318C64930BBDF704713" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0F1C56DF-0C89-4C45-BBAE-D91AE4B68E7D}"/>
   <bookViews>
-    <workbookView xWindow="1485" yWindow="360" windowWidth="14400" windowHeight="14400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14415" yWindow="1200" windowWidth="14385" windowHeight="14400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -814,7 +814,7 @@
   <dimension ref="A1:Q547"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -898,7 +898,7 @@
         <v>19</v>
       </c>
       <c r="I2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J2" t="s">
         <v>21</v>
@@ -939,7 +939,7 @@
         <v>19</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O3" t="s">
         <v>20</v>
@@ -974,7 +974,7 @@
         <v>19</v>
       </c>
       <c r="I4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O4" t="s">
         <v>20</v>
@@ -1009,7 +1009,7 @@
         <v>19</v>
       </c>
       <c r="I5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J5" t="s">
         <v>21</v>
@@ -1050,7 +1050,7 @@
         <v>19</v>
       </c>
       <c r="I6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J6" t="s">
         <v>21</v>
@@ -1091,7 +1091,7 @@
         <v>19</v>
       </c>
       <c r="I7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O7" t="s">
         <v>20</v>
@@ -1126,7 +1126,7 @@
         <v>19</v>
       </c>
       <c r="I8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J8" t="s">
         <v>21</v>
@@ -1167,7 +1167,7 @@
         <v>19</v>
       </c>
       <c r="I9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J9" t="s">
         <v>21</v>
@@ -1208,7 +1208,7 @@
         <v>19</v>
       </c>
       <c r="I10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J10" t="s">
         <v>21</v>
@@ -1249,7 +1249,7 @@
         <v>19</v>
       </c>
       <c r="I11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J11" t="s">
         <v>21</v>
